--- a/excel/연남동.xlsx
+++ b/excel/연남동.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,12 +468,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>연남한양집</t>
+          <t>청화접</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,17 +483,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로46길 26 1층</t>
+          <t>서울 마포구 동교로 268 지하1층 청화접</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더'], ['화', '정기휴무 (매주 화요일)'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0507-1358-0591</t>
+          <t>0507-1333-6580</t>
         </is>
       </c>
     </row>
@@ -574,22 +574,22 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 성미산로29안길 27-6 1층</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 23:30', '23:00 라스트오더'], ['수', '17:00 - 23:30', '23:00 라스트오더'], ['목', '17:00 - 23:30', '23:00 라스트오더'], ['금', '17:00 - 23:30', '23:00 라스트오더'], ['토', '16:00 - 01:00', '00:30 라스트오더'], ['일', '16:00 - 23:30', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['07/25 휴무'], ['- 배달 및 포장은 24시 까지 운영합니다.'], ['생방송투데이 2399회, 19.08.26.', '2019년 8월 26일', ' 목화솜탕수육/홍콩식바지락볶음', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1439-0774</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 성미산로29안길 27-6 1층</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], [''], [''], ['휴무일', '07/25'], ['생방송투데이 2399회, 19.08.26.', '2019년 8월 26일', ' 목화솜탕수육/홍콩식바지락볶음', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>정보 없음</t>
         </is>
       </c>
     </row>
@@ -638,22 +638,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 275-1 꼬요식당</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1410-8917</t>
         </is>
       </c>
     </row>
@@ -670,22 +670,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1351-0896</t>
         </is>
       </c>
     </row>
@@ -702,22 +702,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1351-0896</t>
         </is>
       </c>
     </row>
@@ -734,29 +734,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 성미산로 161-15 1층</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '22:50에 라스트오더', '22시 50분에 라스트오더'], ['매일', '17:00 - 23:50', '22:50 라스트오더']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>02-324-8875</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>연주방</t>
+          <t>무채색</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -766,34 +766,34 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 성미산로 161-15 1층</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '22:50에 라스트오더', '22시 50분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>02-324-8875</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>연남한양집</t>
+          <t>연주방</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 24:00'], ['- 휴무는 따로 공지 할게요']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['- 휴무는 따로 공지 할게요']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>풍년숯불갈비</t>
+          <t>열정타코</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>육류,고기요리</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -852,7 +852,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>청화접</t>
+          <t>이제</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -862,29 +862,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 256-3 미소빌딩 1층</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '17:00 - 23:00', '22:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1414-1599</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>란콰이진 연남본점</t>
+          <t>계담다</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -894,29 +894,29 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1321-1881</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>꼬요식당</t>
+          <t>쏘슐랭</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -926,29 +926,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1321-1881</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>화담</t>
+          <t>시실리</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -958,29 +958,29 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 성미산로 198</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1309-8117</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>소주방</t>
+          <t>바다약방</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -990,29 +990,29 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 266-11 1층 바다약방</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절16:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1420-9015</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>전주상회</t>
+          <t>콘티키빠</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1022,194 +1022,194 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>010-2105-3760</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>요코쵸</t>
+          <t>무채색 숲</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.94</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>010-2105-3760</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>연주방</t>
+          <t>다이닝 야경</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4.41</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 264</t>
+          <t>서울 마포구 성미산로 189-6 101호</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0507-1378-5818</t>
+          <t>0507-1367-7780</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>이와나시</t>
+          <t>무명요리사</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>4.51</t>
+          <t>4.58</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로46길 7 주차장 쪽 반지층</t>
+          <t>서울 마포구 성미산로 189-6 101호</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['월', '17:00 - 24:00'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 24:00'], ['- 휴무는 따로 공지 할게요']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>010-4346-4026</t>
+          <t>0507-1367-7780</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>연남동미로끝</t>
+          <t>쿠시파파</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>서울 마포구 성미산로 190-4 지1층</t>
+          <t>서울 마포구 동교로 256-4 지층 쿠시파파</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['월', '18:00 - 01:00'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['일', '18:00 - 01:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0507-1383-1917</t>
+          <t>0507-1323-3889</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>무취포차</t>
+          <t>루나씨엘로</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>와인</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.63</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 256 2층 무취포차</t>
+          <t>서울 마포구 동교로 256-4 지층 쿠시파파</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:30 - 02:00'], ['- 안녕하세요! 무취포차입니다.']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0507-1480-1321</t>
+          <t>0507-1323-3889</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>연남국자</t>
+          <t>바란스</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1219,24 +1219,24 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로39길 7 1층</t>
+          <t>서울 마포구 동교로 266-5 1층</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+          <t>[['영업 중', '01:40에 라스트오더', '1시 40분에 라스트오더'], ['화', '17:00 - 03:00', '01:40 라스트오더'], ['수', '17:00 - 03:00', '01:40 라스트오더'], ['목', '17:00 - 03:00', '01:40 라스트오더'], ['금', '17:00 - 03:00', '01:40 라스트오더'], ['토', '17:00 - 03:00', '01:40 라스트오더'], ['일', '17:00 - 03:00', '01:40 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0507-1409-1194</t>
+          <t>010-8441-4846</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>차차밀로</t>
+          <t>라온</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1246,29 +1246,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+          <t>서울 마포구 동교로 266-6 반지층</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '15:00 - 01:00', '00:00 라스트오더'], ['일', '15:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월(7/17)', '정기휴무 (격주 월요일)'], ['격주 월요일 정기 휴무']]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>02-6085-7082</t>
+          <t>02-2088-6244</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>덕자도요</t>
+          <t>연남고집</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1278,221 +1278,221 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+          <t>서울 마포구 동교로38길 7</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>02-6085-7082</t>
+          <t>0507-1354-2457</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>맡기다</t>
+          <t>하나킨</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.82</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+          <t>서울 마포구 동교로38길 7</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '15:00 - 01:00', '00:00 라스트오더'], ['일', '15:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>02-6085-7082</t>
+          <t>0507-1354-2457</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>편씨푸드</t>
+          <t>스탠딩박스</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+          <t>서울 마포구 동교로36길 7 101호</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>02-6085-7082</t>
+          <t>0507-1341-4531</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>애주당 연남점</t>
+          <t>이주방</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+          <t>서울 마포구 연희로 33 2층</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '15:00 - 01:00', '00:00 라스트오더'], ['일', '15:00 - 01:00', '00:00 라스트오더']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>02-6085-7082</t>
+          <t>0507-1373-3618</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>한잔하다</t>
+          <t>카시</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>요리주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.57</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+          <t>서울 마포구 연희로 33 2층</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>02-6085-7082</t>
+          <t>0507-1373-3618</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>오버조이드 연남</t>
+          <t>장농속</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>4.65</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>서울 마포구 성미산로 190-8 2층 이와나시</t>
+          <t>서울 마포구 동교로46길 22</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '14:00 - 01:00'], ['일', '14:00 - 01:00'], ['월(7/17)', '제헌절14:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>02-336-3445</t>
+          <t>070-4065-6212</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>어반써티연남</t>
+          <t>모이정</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로46길 40 지1층</t>
+          <t>서울 마포구 성미산로 122 1층</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '16:00 - 24:00'], ['수', '16:00 - 24:00'], ['목', '16:00 - 24:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 24:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0507-1331-5306</t>
+          <t>0507-1381-2885</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>연남파도</t>
+          <t>노라</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1502,566 +1502,7222 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.54</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>서울 마포구 성미산로 153-14 2층</t>
+          <t>서울 마포구 성미산로 122 1층</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 01:00']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>010-3443-6756</t>
+          <t>0507-1381-2885</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>숨은골목</t>
+          <t>모모키친</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>전통,민속주점</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 동교로34길 3 1층</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>010-4340-3973</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>야키토리 지중</t>
+          <t>88노가리 연남하우스</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>이자카야</t>
+          <t>맥주,호프</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.36</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 동교로34길 3 1층</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>010-4340-3973</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>캔슬링</t>
+          <t>이끔</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 동교로46길 24-2 2층 이끔</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절10:00 - 20:00']]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>010-4169-6302</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>레이트체크아웃</t>
+          <t>이자카야라쿤</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 성미산로29안길 29 라쿤</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절10:00 - 20:00'], ['- 12~17시까지는 캐치테이블로 코스예약으로만 진행됩니다']]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>0507-1315-0849</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>온실</t>
+          <t>미드나잇 키친 연남점</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.75</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 성미산로29안길 29 라쿤</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>0507-1315-0849</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>물레방아</t>
+          <t>불철</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 동교로 266-10 B102호 불철</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['- 매주 월요일 정기휴무입니다. 찾아주셔서 감사합니다.']]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>0507-1341-1974</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>아디오도시 파리</t>
+          <t>쿠루미 1호점</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4.58</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로34길 12</t>
+          <t>서울 마포구 동교로 242-13 2층</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>02-323-4633</t>
+          <t>0507-1401-7315</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>아트와떵</t>
+          <t>화령</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>정보 없음</t>
+          <t>4.52</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로50길 25 1층 101호</t>
+          <t>서울 마포구 동교로 242-13 2층</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['수', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['목', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['금', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['토', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)']]</t>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>010-3249-5325</t>
+          <t>0507-1401-7315</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>와인바 별채</t>
+          <t>리파인 연남점</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로 265 2층</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['- 월요일 휴무']]</t>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>0507-1366-2979</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>구룰루</t>
+          <t>아카사니</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로 278 1층</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['매일', '17:00 - 24:00', '23:00 라스트오더'], ['- 디너 오마카세 (사전예약필수)']]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>0507-1488-5060</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>when where wine</t>
+          <t>모모</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로 278 1층</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['- 월요일 휴무']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>0507-1488-5060</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>빠레트</t>
+          <t>비등점</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로38안길 22 1층</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월(7/17)', '제헌절17:00 - 02:00']]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>0507-1367-3488</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>얍</t>
+          <t>바란스</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>와인</t>
+          <t>술집</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로 266-5 1층</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['- 월요일 휴무']]</t>
+          <t>[['영업 중', '01:40에 라스트오더', '1시 40분에 라스트오더'], ['화', '17:00 - 03:00', '01:40 라스트오더'], ['수', '17:00 - 03:00', '01:40 라스트오더'], ['목', '17:00 - 03:00', '01:40 라스트오더'], ['금', '17:00 - 03:00', '01:40 라스트오더'], ['토', '17:00 - 03:00', '01:40 라스트오더'], ['일', '17:00 - 03:00', '01:40 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>010-8441-4846</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>주재</t>
+          <t>미도리</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>바(BAR)</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로46길 16 지하1층</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '22:15에 라스트오더', '22시 15분에 라스트오더'], ['화', '17:00 - 23:00', '22:15 라스트오더'], ['수', '17:00 - 23:00', '22:15 라스트오더'], ['목', '17:00 - 23:00', '22:15 라스트오더'], ['금', '17:00 - 23:00', '22:15 라스트오더'], ['토', '16:00 - 23:00', '22:15 라스트오더'], ['일', '16:00 - 23:00', '22:15 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>010-2299-1857</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GWEEK</t>
+          <t>단단</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>술집</t>
+          <t>이자카야</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로46길 16 지하1층</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['- 월요일 휴무']]</t>
+          <t>[['영업 중', '22:15에 라스트오더', '22시 15분에 라스트오더', '펼쳐보기']]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>010-2299-1857</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>데어데어</t>
+          <t>뚜이연남</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>맥주,호프</t>
+          <t>요리주점</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>4.69</t>
+          <t>정보 없음</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
+          <t>서울 마포구 동교로34길 11</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무', '펼쳐보기'], ['']]</t>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>070-7645-7891</t>
+          <t>0507-1376-0679</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>옥타</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로26길 42 샹글리라</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 23:00'], ['수', '18:00 - 23:00'], ['목', '18:00 - 23:00'], ['금', '18:00 - 23:00'], ['토', '18:00 - 23:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>02-325-8056</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>두루미</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 129-10 두루미</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '14:00 - 24:00', '23:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>0507-1370-5133</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>고릴라요정</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 129-10 두루미</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>0507-1370-5133</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>이마치</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 19-7 2층 이마치 (1층은 심원 한 층 더 올라오세요)</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['화', '14:30 - 23:00', '22:00 라스트오더'], ['수', '14:30 - 23:00', '22:00 라스트오더'], ['목', '14:30 - 23:00', '22:00 라스트오더'], ['금', '14:30 - 23:00', '22:00 라스트오더'], ['토', '14:30 - 23:00', '22:00 라스트오더'], ['일', '14:30 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0507-1396-8557</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>달빛부엌</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 19-7 2층 이마치 (1층은 심원 한 층 더 올라오세요)</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '17:30 - 01:00'], ['토', '17:30 - 01:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['- 휴무일 인스타그램 참고 @moonkitchen1234'], ['식신로드1 203회, 14.10.11.', '2014년 10월 11일', ' 3종모둠튀김/돼지고기바질볶음']]</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>02-322-3559</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>청화접</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 268 지하1층 청화접</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0507-1333-6580</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>풍년숯불갈비</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>육류,고기요리</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 264</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '12:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>0507-1378-5818</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>청화접</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 264</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>0507-1378-5818</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>란콰이진 연남본점</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 27-6 1층</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], [''], [''], ['휴무일', '07/25'], ['생방송투데이 2399회, 19.08.26.', '2019년 8월 26일', ' 목화솜탕수육/홍콩식바지락볶음', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0507-1439-0774</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>꼬요식당</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 27-6 1층</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0507-1410-8917</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>화담</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 275-1 꼬요식당</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>0507-1410-8917</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>소주방</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '16:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0507-1351-0896</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>전주상회</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-12 1층,2층</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0507-1351-0896</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>요코쵸</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 161-15 1층</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:50에 라스트오더', '22시 50분에 라스트오더'], ['매일', '17:00 - 23:50', '22:50 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>02-324-8875</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>무채색</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 161-15 1층</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:50에 라스트오더', '22시 50분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>02-324-8875</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>연주방</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 주차장 쪽 반지층</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00'], ['- 휴무는 따로 공지 할게요']]</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>010-4346-4026</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>열정타코</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 주차장 쪽 반지층</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>010-4346-4026</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>이제</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-3 미소빌딩 1층</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 23:00', '22:00 라스트오더'], ['월', '17:00 - 23:00', '22:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0507-1414-1599</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>계담다</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '12:00 - 01:00', '00:00 라스트오더'], ['수', '12:00 - 01:00', '00:00 라스트오더'], ['목', '12:00 - 01:00', '00:00 라스트오더'], ['금', '12:00 - 02:00', '01:00 라스트오더'], ['토', '12:00 - 02:00', '01:00 라스트오더'], ['일', '12:00 - 01:00', '00:00 라스트오더'], ['월', '12:00 - 01:00', '00:00 라스트오더'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>0507-1321-1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>쏘슐랭</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-20 지1층, 1층</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['맛있는녀석들 418회, 23.02.24.', '2023년 2월 24일', ' 김치/백김치', '펼쳐보기'], [''], [''], [''], [''], ['']]</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>0507-1321-1881</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>시실리</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 198</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>[['영업 중', '03:00에 영업 종료', '3시 0분에 영업 종료'], ['화', '17:00 - 03:00'], ['수', '17:00 - 03:00'], ['목', '17:00 - 03:00'], ['금', '17:00 - 04:00'], ['토', '17:00 - 04:00'], ['일', '17:00 - 03:00'], ['월', '17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>0507-1309-8117</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>바다약방</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-11 1층 바다약방</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '16:00 - 02:00', '01:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절16:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>0507-1420-9015</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>콘티키빠</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>010-2105-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>무채색 숲</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-1 지하 1층</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>010-2105-3760</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>다이닝 야경</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 189-6 101호</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>0507-1367-7780</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>무명요리사</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 189-6 101호</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0507-1367-7780</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>쿠시파파</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-4 지층 쿠시파파</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 03:00'], ['토', '17:00 - 03:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>0507-1323-3889</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>루나씨엘로</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-4 지층 쿠시파파</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>0507-1323-3889</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>바란스</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-5 1층</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:40에 라스트오더', '1시 40분에 라스트오더'], ['화', '17:00 - 03:00', '01:40 라스트오더'], ['수', '17:00 - 03:00', '01:40 라스트오더'], ['목', '17:00 - 03:00', '01:40 라스트오더'], ['금', '17:00 - 03:00', '01:40 라스트오더'], ['토', '17:00 - 03:00', '01:40 라스트오더'], ['일', '17:00 - 03:00', '01:40 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>010-8441-4846</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>라온</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-6 반지층</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월(7/17)', '정기휴무 (격주 월요일)'], ['격주 월요일 정기 휴무']]</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>02-2088-6244</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>연남고집</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 7</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>0507-1354-2457</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>하나킨</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 7</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>0507-1354-2457</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>스탠딩박스</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로36길 7 101호</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '16:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0507-1341-4531</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>이주방</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로 33 2층</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0507-1373-3618</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>카시</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로 33 2층</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0507-1373-3618</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>장농속</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 22</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '14:00 - 01:00'], ['일', '14:00 - 01:00'], ['월(7/17)', '제헌절14:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>070-4065-6212</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>모이정</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 122 1층</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>0507-1381-2885</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>노라</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 122 1층</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>0507-1381-2885</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>모모키친</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 3 1층</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>010-4340-3973</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>88노가리 연남하우스</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 3 1층</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>010-4340-3973</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>이끔</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 24-2 2층 이끔</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '17:00 - 24:00', '23:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절10:00 - 20:00']]</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>010-4169-6302</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>이자카야라쿤</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 29 라쿤</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '12:00 - 24:00', '23:00 라스트오더'], ['수', '12:00 - 24:00', '23:00 라스트오더'], ['목', '12:00 - 24:00', '23:00 라스트오더'], ['금', '12:00 - 24:00', '23:00 라스트오더'], ['토', '12:00 - 24:00', '23:00 라스트오더'], ['일', '12:00 - 24:00', '23:00 라스트오더'], ['월(7/17)', '제헌절10:00 - 20:00'], ['- 12~17시까지는 캐치테이블로 코스예약으로만 진행됩니다']]</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>0507-1315-0849</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>미드나잇 키친 연남점</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 29 라쿤</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0507-1315-0849</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>불철</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-10 B102호 불철</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '17:00 - 02:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '정기휴무 (매주 월요일)'], ['- 매주 월요일 정기휴무입니다. 찾아주셔서 감사합니다.']]</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0507-1341-1974</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>쿠루미 1호점</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 242-13 2층</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0507-1401-7315</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>화령</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 242-13 2층</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>0507-1401-7315</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>리파인 연남점</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 265 2층</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월(7/17)', '제헌절17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>0507-1366-2979</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>아카사니</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 278 1층</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>0507-1488-5060</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>모모</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 278 1층</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['매일', '17:00 - 24:00', '23:00 라스트오더'], ['- 디너 오마카세 (사전예약필수)']]</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>0507-1488-5060</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>비등점</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 22 1층</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 02:00', '01:00 라스트오더'], ['월(7/17)', '제헌절17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>0507-1367-3488</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>바란스</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-5 1층</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:40에 라스트오더', '1시 40분에 라스트오더'], ['화', '17:00 - 03:00', '01:40 라스트오더'], ['수', '17:00 - 03:00', '01:40 라스트오더'], ['목', '17:00 - 03:00', '01:40 라스트오더'], ['금', '17:00 - 03:00', '01:40 라스트오더'], ['토', '17:00 - 03:00', '01:40 라스트오더'], ['일', '17:00 - 03:00', '01:40 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>010-8441-4846</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>미도리</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 16 지하1층</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:15에 라스트오더', '22시 15분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>010-2299-1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>단단</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 16 지하1층</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:15에 라스트오더', '22시 15분에 라스트오더'], ['화', '17:00 - 23:00', '22:15 라스트오더'], ['수', '17:00 - 23:00', '22:15 라스트오더'], ['목', '17:00 - 23:00', '22:15 라스트오더'], ['금', '17:00 - 23:00', '22:15 라스트오더'], ['토', '16:00 - 23:00', '22:15 라스트오더'], ['일', '16:00 - 23:00', '22:15 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>010-2299-1857</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>뚜이연남</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 11</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>0507-1376-0679</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>옥타</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로26길 42 샹글리라</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 23:00'], ['수', '18:00 - 23:00'], ['목', '18:00 - 23:00'], ['금', '18:00 - 23:00'], ['토', '18:00 - 23:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>02-325-8056</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>두루미</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 129-10 두루미</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '14:00 - 24:00', '23:00 라스트오더'], ['일', '14:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0507-1370-5133</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>고릴라요정</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 129-10 두루미</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>0507-1370-5133</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>이마치</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 19-7 2층 이마치 (1층은 심원 한 층 더 올라오세요)</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0507-1396-8557</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>달빛부엌</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 19-7 2층 이마치 (1층은 심원 한 층 더 올라오세요)</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['화', '14:30 - 23:00', '22:00 라스트오더'], ['수', '14:30 - 23:00', '22:00 라스트오더'], ['목', '14:30 - 23:00', '22:00 라스트오더'], ['금', '14:30 - 23:00', '22:00 라스트오더'], ['토', '14:30 - 23:00', '22:00 라스트오더'], ['일', '14:30 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0507-1396-8557</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>이와나시</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-8 2층 이와나시</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수(7/12)', '휴무'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>02-336-3445</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>무취포차</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-8 2층 이와나시</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기'], [''], ['휴무일', '07/12']]</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>02-336-3445</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>연남동미로끝</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-4 지1층</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['일', '18:00 - 01:00'], ['월(7/17)', '제헌절18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>0507-1383-1917</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>연남국자</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로39길 7 1층</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['매일', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>0507-1409-1194</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>차차밀로</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '15:00 - 01:00', '00:00 라스트오더'], ['일', '15:00 - 01:00', '00:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>02-6085-7082</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>덕자도요</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-12 2층 202호</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>02-6085-7082</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>맡기다</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 12</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 02:00', '00:30 라스트오더'], ['수', '18:00 - 02:00', '00:30 라스트오더'], ['목', '18:00 - 02:00', '00:30 라스트오더'], ['금', '18:00 - 02:00', '00:30 라스트오더'], ['토', '18:00 - 02:00', '00:30 라스트오더'], ['일', '18:00 - 02:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>0507-1474-2590</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>한잔하다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 9 2층</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '16:00 - 01:00', '00:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0507-1392-8655</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>편씨푸드</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 7 지하1층</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 02:00', '01:00 라스트오더'], ['토', '17:00 - 02:00', '01:00 라스트오더'], ['일', '17:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0507-1492-2041</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>애주당 연남점</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 27-5 1층</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['화', '17:00 - 23:00', '22:00 라스트오더'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['일', '16:00 - 23:00', '22:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>02-6080-1957</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>등불서양주점</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-11 반지층</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>02-333-0368</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>기 호</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-11 반지층</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '16:00 - 01:00'], ['토', '16:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>0507-1341-4026</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>우주옥</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로50길 11 B02 우주옥</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '18:00 - 24:00', '22:30 라스트오더'], ['일', '18:00 - 24:00', '22:30 라스트오더'], ['월', '18:00 - 24:00', '22:30 라스트오더'], ['- 재료소진시 조기마감될 수 있습니다.']]</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0507-1363-4812</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>온기</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로3길 7 지하1층 101호</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['화', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['수', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['목', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['금', '11:30 - 23:00', '14:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['토', '17:00 - 23:00', '22:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '11:30 - 14:00', '13:00 라스트오더'], ['- 재료소진 시 조기마감 될 수 있는 점 참고해주세요']]</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>0507-1346-3656</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>팜팜발리</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로3길 7 지하1층 101호</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>0507-1346-3656</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>제이드럭</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 13 반지층</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월(7/17)', '제헌절17:00 - 01:00'], ['- 수요일이 공휴일인 경우 다음날을 휴무일로 변경합니다']]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>0507-1360-5086</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>여의주점</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 13 반지층</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0507-1360-5086</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>기대 연남</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-9 9 라온오레 1층</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '13:00 - 01:00', '00:00 라스트오더'], ['수', '13:00 - 01:00', '00:00 라스트오더'], ['목', '13:00 - 01:00', '00:00 라스트오더'], ['금', '13:00 - 01:00', '00:00 라스트오더'], ['토', '13:00 - 01:00', '00:00 라스트오더'], ['일', '13:00 - 01:00', '00:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>0507-1305-1494</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>느린마을양조장 연남점</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-9 9 라온오레 1층</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>0507-1305-1494</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>쨈지달</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 23 지층</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 24:00'], ['월', '18:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>0507-1371-3457</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>쿠루미 2호점</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 23 지층</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0507-1371-3457</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>청춘소년</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 42-8 1층</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '15:00 - 01:00'], ['일', '15:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>070-7685-0924</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>빠인</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 42-8 1층</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>070-7685-0924</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>마리연남</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 29 2층</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 라스트오더', '2시 0분에 라스트오더'], ['화', '17:00 - 03:00', '02:00 라스트오더'], ['수', '17:00 - 03:00', '02:00 라스트오더'], ['목', '17:00 - 03:00', '02:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더'], ['일', '15:00 - 03:00', '02:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>0507-1386-2460</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>디벨롭연남</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 24 1층</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['화', '17:00 - 02:00', '01:00 라스트오더'], ['수', '17:00 - 02:00', '01:00 라스트오더'], ['목', '17:00 - 02:00', '01:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '14:00 - 03:00', '02:00 라스트오더'], ['일', '14:00 - 02:00', '01:00 라스트오더'], ['월', '17:00 - 02:00', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0507-1485-4848</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>플랜힙</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>카페,디저트</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 24 1층</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>0507-1485-4848</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>유메오뎅 연남점</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 262 1층 유메오뎅</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 라스트오더', '1시 0분에 라스트오더'], ['매일', '16:00 - 01:30', '01:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>0507-1397-1234</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>연남 안테이쿠</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 59-3 1층</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 03:00', '02:00 라스트오더'], ['토', '15:00 - 03:00', '02:00 라스트오더'], ['일', '15:00 - 01:00', '00:00 라스트오더'], ['월', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>0507-1391-1480</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>요즘</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 5 3층</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '16:30 - 23:00'], ['수', '16:30 - 23:00'], ['목', '16:30 - 23:00'], ['금', '16:30 - 01:00'], ['토', '16:30 - 01:00'], ['일', '16:30 - 22:00'], ['월', '16:30 - 23:00'], ['- 공휴일 전 날은 토요일 영업시간과 같이 운영합니다.']]</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0507-1349-9052</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>장작집 연남본점</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 5 3층</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>0507-1349-9052</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>장끼전</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-33 B1</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>010-2436-1633</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>루나씨엘로</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-33 B1</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>010-2436-1633</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>힉스</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 7 2층 Higgs</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['월(7/17)', '제헌절18:00 - 01:00'], ['- 휴무 관련 인스타그램 참고 부탁드립니다 🙇🏻\u200d♂️']]</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>0507-1448-1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>미자씨</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 7 2층 Higgs</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0507-1448-1996</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>연남한양집</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 26 1층</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '16:00 - 24:00', '23:00 라스트오더'], ['목', '16:00 - 24:00', '23:00 라스트오더'], ['금', '16:00 - 24:00', '23:00 라스트오더'], ['토', '16:00 - 24:00', '23:00 라스트오더'], ['일', '16:00 - 24:00', '23:00 라스트오더'], ['월', '16:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0507-1358-0591</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>연남마실</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 129-2 연남마실</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '17:00 - 01:00', '00:30 라스트오더'], ['수', '17:00 - 01:00', '00:30 라스트오더'], ['목', '17:00 - 01:00', '00:30 라스트오더'], ['금', '17:00 - 01:00', '00:30 라스트오더'], ['토', '15:00 - 01:00', '00:30 라스트오더'], ['일', '15:00 - 01:00', '00:30 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>010-7775-7407</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>잔상</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 129-2 연남마실</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>010-7775-7407</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>퍼시픽버블스</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 27-12 1층</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>덴 후카바 연남점</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 42-6 3층</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>02-6352-1027</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>줜막걸리아노</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 248-2 2층</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>0507-1347-8843</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>도부</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 77-11 1층, 도부</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '11:50 - 24:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['목', '11:50 - 24:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['금', '11:50 - 24:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['토', '11:50 - 24:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['일', '11:50 - 24:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['월', '11:50 - 24:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['- 런치 라스트오더 14:00']]</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>0507-1352-6286</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>이노시시 연남본점</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남동 226-16</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 24:00', '22:30 라스트오더'], ['수', '18:00 - 24:00', '22:30 라스트오더'], ['목', '18:00 - 24:00', '22:30 라스트오더'], ['금', '18:00 - 24:00', '22:30 라스트오더'], ['토', '18:00 - 24:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0507-1368-7307</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>루프힙</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남동 226-16</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0507-1368-7307</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>연남5701</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로23길 64 지하</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작'], ['화', '18:30 - 23:00'], ['수', '18:30 - 23:00'], ['목', '18:30 - 23:00'], ['금', '18:30 - 23:00'], ['토', '18:30 - 23:00'], ['일', '18:30 - 23:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>0507-1344-8161</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>PoDo R</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로23길 64 지하</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>0507-1344-8161</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>힠컵</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 7 1층</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['화', '17:00 - 24:00', '22:30 라스트오더'], ['수', '17:00 - 24:00', '22:30 라스트오더'], ['목', '17:00 - 24:00', '22:30 라스트오더'], ['금', '17:00 - 24:00', '22:30 라스트오더'], ['토', '17:00 - 24:00', '22:30 라스트오더'], ['일', '17:00 - 24:00', '22:30 라스트오더'], ['월', '정기휴무 (매주 월요일)'], ['- 3월6일 - 9일까지 출장으로 인하여 휴무입니다.']]</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>010-2020-8231</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>윤달</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 7 1층</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>010-2020-8231</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>신군신양</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 23 2층</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 24:00'], ['수', '19:00 - 24:00'], ['목', '19:00 - 24:00'], ['금', '19:00 - 24:00'], ['토', '18:00 - 01:00'], ['일', '19:00 - 24:00'], ['월', '19:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>070-8790-2810</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>오버조이드 연남</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38안길 21 지하1층</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '18:00 - 01:00'], ['목', '18:00 - 01:00'], ['금', '18:00 - 01:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '18:00 - 01:00'], ['- 휴무일은 인스타그램을 통해 확인 바랍니다.']]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>0507-1362-2792</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>쿠보</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 258-1 2층</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[['영업 중', '02:00에 영업 종료', '2시 0분에 영업 종료'], ['화', '17:00 - 02:00'], ['수', '정기휴무 (매주 수요일)'], ['목', '17:00 - 02:00'], ['금', '17:00 - 03:00'], ['토', '16:00 - 03:00'], ['일', '16:00 - 02:00'], ['월', '17:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>0507-1359-4352</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>숨은골목</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>전통,민속주점</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-8 2층 이와나시</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수(7/12)', '휴무'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)'], ['접기']]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>02-336-3445</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>어반써티연남</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 40 지1층</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '16:00 - 24:00'], ['수', '16:00 - 24:00'], ['목', '16:00 - 24:00'], ['금', '16:00 - 24:00'], ['토', '16:00 - 24:00'], ['일', '16:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>0507-1331-5306</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>연남파도</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 153-14 2층</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>010-3443-6756</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>야키토리 지중</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로29길 32</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 02:00', '01:30 라스트오더'], ['수', '18:00 - 02:00', '01:30 라스트오더'], ['목', '18:00 - 02:00', '01:30 라스트오더'], ['금', '18:00 - 02:00', '01:30 라스트오더'], ['토', '18:00 - 02:00', '01:30 라스트오더'], ['일', '18:00 - 02:00', '01:30 라스트오더'], ['월(7/17)', '제헌절18:00 - 02:00'], ['- 재고사정에 따라 조기마감될수있습니다.']]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>02-325-5050</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>연남동 오뎅파는집</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로29길 32</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>02-325-5050</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>레이트체크아웃</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 262-9 2층</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '15:00 - 24:00'], ['수', '15:00 - 24:00'], ['목', '15:00 - 24:00'], ['금', '15:00 - 24:00'], ['토', '12:00 - 24:00'], ['일', '12:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>0507-1399-2524</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>미드나잇라운지</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-4 2층 202호 미드나잇</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['매일', '19:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>0507-1378-9170</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>스필아웃</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-4 2층 202호 미드나잇</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>0507-1378-9170</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>캔슬링</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 262 3층</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>010-7356-7669</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>물레방아</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 161-10 물레방아</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 04:00'], ['수', '18:00 - 04:00'], ['목', '18:00 - 04:00'], ['금', '18:00 - 04:00'], ['토', '15:00 - 04:00'], ['일', '15:00 - 04:00'], ['월', '18:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>0507-1320-3890</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>꼬모</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 161-10 물레방아</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>0507-1320-3890</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>아디오도시 파리</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 지하 아디오도시</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['매일', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>0507-1407-9342</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>크래프트원</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 7 지하 아디오도시</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>0507-1407-9342</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>브래디스 칵테일</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로23안길 23 1층</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '14:00 - 23:00'], ['수', '14:00 - 23:00'], ['목', '14:00 - 23:00'], ['금', '14:00 - 23:00'], ['토', '14:00 - 23:00'], ['일', '14:00 - 23:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>02-6954-1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>개화연</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로23안길 23 1층</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>02-6954-1929</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>더티핑크</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 194 지층1호</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '18:00 - 03:00'], ['일', '17:00 - 01:00'], ['월', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>010-7220-3072</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>영지인 연남점</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 194 지층1호</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>010-7220-3072</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>바결</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 17 102호</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '19:00 - 01:00'], ['목', '19:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월', '19:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>0507-1336-0459</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>하뭇</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 17 102호</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>0507-1336-0459</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>히로</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 276 2층</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '14:00 - 02:00', '01:30 라스트오더'], ['수', '14:00 - 02:00', '01:30 라스트오더'], ['목', '14:00 - 02:00', '01:30 라스트오더'], ['금', '14:00 - 04:00', '03:30 라스트오더'], ['토', '14:00 - 04:00', '03:30 라스트오더'], ['일', '14:00 - 02:00', '01:30 라스트오더'], ['월', '14:00 - 02:00', '01:30 라스트오더'], ['- 임시휴무']]</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>0507-1407-4795</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>수을관</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 19 2.5층</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>0507-1375-0207</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>현대음률</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 19 2.5층</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>050-6818-8180</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>케이브</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 193</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '19:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>010-4899-5362</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>화월 카게츠 연남점</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 20 지1층 102호</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>0507-1342-3907</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>제이앤제이슨 R</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 255-1 지층</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '19:00 - 04:00'], ['목', '19:00 - 04:00'], ['금', '19:00 - 04:00'], ['토', '19:00 - 04:00'], ['일', '19:00 - 04:00'], ['월(7/17)', '제헌절19:00 - 04:00']]</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>0507-1339-0606</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>33YUKON</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 255-1 지층</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>0507-1339-0606</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>에브르</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 42-9 1층</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작'], ['화', '20:00 - 03:00'], ['수', '20:00 - 03:00'], ['목', '20:00 - 03:00'], ['금', '20:00 - 03:00'], ['토', '20:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>0507-1339-9523</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>톨테일</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-3 2층</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 03:00'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['일', '18:00 - 03:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>010-8313-5220</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>연남주점</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 190-3 2층</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>010-8313-5220</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>봄희</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로23안길 21</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '14:00 - 24:00'], ['일', '14:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>070-4192-6764</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>반말포차</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로23안길 21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>070-4192-6764</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>에이든</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 16 1층</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>0507-1399-1725</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>수수하다</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 16 1층</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '15:00 - 24:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00'], ['- 화요일 주로 휴무이나 인스타 공지 확인부탁드려요!']]</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>0507-1399-1725</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>이리</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 12 1층좌측 이리</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작'], ['화', '18:30 - 02:00'], ['수', '18:30 - 02:00'], ['목', '18:30 - 02:00'], ['금', '18:30 - 02:00'], ['토', '18:30 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>0507-1384-7355</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>The Bad Journal</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로25길 57 1층</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작'], ['화', '20:00 - 01:00'], ['수', '20:00 - 01:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 02:00'], ['토', '19:00 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '20:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>52nd Street</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로25길 57 1층</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>010-9490-6581</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>역전할머니맥주 연남점</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>4.5</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로6길 93 1층</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 01:00'], ['수', '18:00 - 01:00'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:00 - 01:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 24:00'], ['월', '18:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>010-9490-6581</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>그로떼 와인&amp;위스키</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29길 35 B01호</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['매일', '17:00 - 01:00', '00:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>0507-1337-0085</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>페리캐시 와인</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 244-1</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '16:30 - 01:00', '00:30 라스트오더'], ['목', '16:30 - 01:00', '00:30 라스트오더'], ['금', '16:30 - 01:00', '00:30 라스트오더'], ['토', '16:30 - 01:00', '00:30 라스트오더'], ['일', '16:30 - 01:00', '00:30 라스트오더'], ['월', '15:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>0507-1452-1229</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>로제드미네</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 244-1</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>0507-1452-1229</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>칠링</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 42-5 신박사빌딩 3층 루프탑</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '16:00 - 01:00'], ['수', '16:00 - 01:00'], ['목', '16:00 - 01:00'], ['금', '15:00 - 02:00'], ['토', '15:00 - 02:00'], ['일', '15:00 - 01:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>0507-1361-4826</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>빠레트</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 42-5 신박사빌딩 3층 루프탑</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>0507-1361-4826</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>소프트컬러</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 63 지층, 1층</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '17:00 - 23:00'], ['수', '13:00 - 23:00'], ['목', '13:00 - 23:00'], ['금', '13:00 - 24:00'], ['토', '12:00 - 24:00'], ['일', '12:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>070-8018-0580</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>토쿠이</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 282 지층</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 02:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>0507-1365-1808</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>주당</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33 2층 202호</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['화', '17:00 - 24:00', '23:30 라스트오더'], ['수', '17:00 - 24:00', '23:30 라스트오더'], ['목', '17:00 - 24:00', '23:30 라스트오더'], ['금', '16:00 - 01:00', '00:30 라스트오더'], ['토', '16:00 - 01:00', '00:30 라스트오더'], ['일', '17:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 24:00', '23:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>02-3144-2576</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>갤러리루즈</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 257 지하1층 갤러리루즈</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작'], ['화', '18:30 - 02:00', '01:30 라스트오더'], ['수', '18:30 - 02:00', '01:30 라스트오더'], ['목', '18:30 - 02:00', '01:30 라스트오더'], ['금', '11:00 - 04:00', '03:30 라스트오더'], ['토', '11:00 - 04:00', '03:30 라스트오더'], ['일', '11:00 - 02:00', '01:30 라스트오더'], ['월', '18:30 - 02:00', '01:30 라스트오더'], ['- 금토일 11:00 - 18:00 카페영업💕']]</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>0507-1378-7357</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>야반도주</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>서울 마포구 연희로1길 45-4 . 지1층</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:30에 라스트오더', '23시 30분에 라스트오더'], ['화', '17:00 - 24:00', '23:30 라스트오더'], ['수', '17:00 - 24:00', '23:30 라스트오더'], ['목', '17:00 - 24:00', '23:30 라스트오더'], ['금', '17:00 - 24:00', '23:30 라스트오더'], ['토', '17:00 - 24:00', '23:30 라스트오더'], ['일', '17:00 - 24:00', '23:30 라스트오더'], ['월', '17:00 - 24:00', '23:30 라스트오더'], ['매달 1번째 월요일 정기 휴무'], ['- 설날, 추석 당일 휴무']]</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>0507-1419-1309</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>후레쉬 2호점</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로1길 37 . 1층 101호(연남동, 호산나빌)</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>[['영업 중', '21:30에 라스트오더', '21시 30분에 라스트오더'], ['화', '11:30 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['수', '11:30 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['목', '11:30 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['금', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:30 라스트오더'], ['토', '11:30 - 24:00', '15:00 - 17:00 브레이크타임', '23:30 라스트오더'], ['일', '11:30 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['월', '11:30 - 22:00', '15:00 - 17:00 브레이크타임', '21:30 라스트오더'], ['- 점심영업은 14시 30분 라스트오더 입니다 :)']]</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>0507-1396-5411</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>vencoch</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 9 3층</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더'], ['화', '17:00 - 02:00', '01:30 라스트오더'], ['수', '17:00 - 02:00', '01:30 라스트오더'], ['목', '17:00 - 02:00', '01:30 라스트오더'], ['금', '17:00 - 03:00', '02:30 라스트오더'], ['토', '17:00 - 03:00', '02:30 라스트오더'], ['일', '17:00 - 02:00', '01:30 라스트오더'], ['월(7/17)', '제헌절17:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>0507-1349-3575</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>와인바 별채</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 9 3층</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:30에 라스트오더', '1시 30분에 라스트오더', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>0507-1349-3575</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>어반루프</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 12</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>02-323-4633</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>아트와떵</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로50길 25 1층 101호</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:30에 라스트오더', '22시 30분에 라스트오더'], ['화', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['수', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['목', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['금', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['토', '12:00 - 24:00', '15:00 - 17:00 브레이크타임', '13:30, 22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>010-3249-5325</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>구룰루</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 272-7 1층</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 01:00'], ['토', '15:00 - 01:00'], ['일', '15:00 - 23:00'], ['월', '17:00 - 24:00'], ['07/19 휴무']]</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>0507-1370-9405</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>GWEEK</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로50길 11 지층 GWEEK</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수', '정기휴무 (매주 수요일)'], ['목', '13:00 - 22:00', '21:00 라스트오더'], ['금', '13:00 - 22:00', '21:00 라스트오더'], ['토', '13:00 - 22:00', '21:00 라스트오더'], ['일', '13:00 - 22:00', '21:00 라스트오더'], ['월', '13:00 - 22:00', '21:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>0507-1358-6753</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>주재</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 167-7 1층 101호</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:00에 라스트오더', '0시 0분에 라스트오더'], ['화', '17:00 - 01:00', '00:00 라스트오더'], ['수', '17:00 - 01:00', '00:00 라스트오더'], ['목', '17:00 - 01:00', '00:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '17:00 - 01:00', '00:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>0507-1335-9310</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>얍</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로32길 19 오른쪽 반지층</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 23:00'], ['토', '16:00 - 23:00'], ['일', '16:00 - 22:00'], ['월', '17:00 - 23:00']]</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>0507-1397-7132</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>when where wine</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 27-19 1층</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 02:00'], ['금', '17:00 - 02:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 24:00'], ['월', '17:00 - 24:00'], ['- 휴무는 인스타그램 공지']]</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>0507-1305-1538</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>데어데어</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 27-19 1층</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>0507-1305-1538</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
           <t>연남일기</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B218" t="inlineStr">
         <is>
           <t>와인</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>서울 마포구 동교로 262-3 1층 와인바 별채</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>[['오늘 휴무', '매주 월요일 휴무', '매주 월요일 휴무'], ['월', '정기휴무 (매주 월요일)'], ['화', '18:00 - 24:00'], ['수', '18:00 - 24:00'], ['목', '18:00 - 24:00'], ['금', '18:00 - 01:00'], ['토', '18:00 - 01:00'], ['일', '18:00 - 24:00'], ['- 월요일 휴무']]</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>070-7645-7891</t>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 9 1층</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더'], ['화', '15:30 - 01:00', '00:30 라스트오더'], ['수', '15:30 - 01:00', '00:30 라스트오더'], ['목', '15:30 - 01:00', '00:30 라스트오더'], ['금', '15:30 - 01:00', '00:30 라스트오더'], ['토', '13:30 - 01:30', '01:00 라스트오더'], ['일', '13:30 - 01:30', '01:00 라스트오더'], ['월(7/17)', '제헌절15:30 - 01:30'], ['- 재료 준비 사정상 오픈과 마감시간이 조정될 수 있습니다']]</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>0507-1496-6060</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>연남오락실</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 9 1층</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>[['영업 중', '00:30에 라스트오더', '0시 30분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>0507-1496-6060</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>연남오뎅</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>오뎅,꼬치</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 262-13 지층</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:00 - 01:00'], ['수', '17:00 - 01:00'], ['목', '17:00 - 01:00'], ['금', '17:00 - 01:00'], ['토', '17:00 - 02:00'], ['일', '17:00 - 02:00'], ['월(7/17)', '제헌절17:00 - 02:00'], ['- 명절 당일엔 쉬어갑니다.']]</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>0507-1388-1360</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>카탈리스트</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 42-24 3층, BAR Catalyst</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 03:00'], ['목', '18:00 - 03:00'], ['금', '18:00 - 03:00'], ['토', '18:00 - 03:00'], ['일', '18:00 - 03:00'], ['월(7/17)', '제헌절18:00 - 03:00'], ['- 매주 화요일은 정기휴무일입니다.']]</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>0507-1316-4629</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>유니르</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-10</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['매일', '17:00 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>0507-1419-1240</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>주홍</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>4.7</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 256-10</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>0507-1419-1240</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>딥하우스</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 257-1 지하1층</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '18:00 - 02:00'], ['목', '18:00 - 02:00'], ['금', '18:00 - 02:00'], ['토', '18:00 - 02:00'], ['일', '18:00 - 02:00'], ['월', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>0507-1377-5185</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>연남동잠깐</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-12 2층</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '정기휴무 (매주 금요일)'], ['토', '정기휴무 (매주 토요일)'], ['일', '15:00 - 24:00', '23:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>0507-1407-0770</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>연남와인살롱</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 14 2F</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '15:00 - 24:00'], ['일', '15:00 - 24:00'], ['월', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>02-332-0208</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>채널1969</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 14 2F</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>010-9343-1969</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>미르</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 7 반지하 오른쪽 미르</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무'], ['화', '정기휴무 (매주 화요일)'], ['수', '정기휴무 (매주 수요일)'], ['목', '정기휴무 (매주 목요일)'], ['금', '18:00 - 23:00', '21:30 라스트오더'], ['토', '정기휴무 (매주 토요일)'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>02-323-5824</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>하울 인 더 바</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 7 반지하 오른쪽 미르</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '매주 화요일 휴무', '매주 화요일 휴무', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>02-323-5824</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>칠펍</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 185 지하</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 02:00'], ['수', '19:00 - 02:00'], ['목', '19:00 - 02:00'], ['금', '19:00 - 03:00'], ['토', '19:00 - 03:00'], ['일', '19:00 - 01:00'], ['월', '정기휴무 (매주 월요일)'], ['- 임시휴무 시 인스타 공지']]</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>02-5622-7812</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>마인드엔터</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로17길 109 1층</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '12:00 - 23:00', '15:30 - 17:30 브레이크타임'], ['수', '정기휴무 (매주 수요일)'], ['목', '12:00 - 23:00', '15:30 - 17:30 브레이크타임'], ['금', '12:00 - 23:00', '15:30 - 17:30 브레이크타임'], ['토', '12:00 - 23:00', '15:30 - 17:30 브레이크타임'], ['일', '12:00 - 23:00', '15:30 - 17:30 브레이크타임'], ['월', '12:00 - 23:00', '15:30 - 17:30 브레이크타임']]</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>0507-1323-7027</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>대환영</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 17 1층</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['매일', '18:00 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>070-8712-2418</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>봉구비어 연남동점</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 17 1층</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>070-8712-2418</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>팬앤팟</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로 15 1층 102호 팬앤팟</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더'], ['화', '17:00 - 24:00', '23:00 라스트오더'], ['수', '17:00 - 24:00', '23:00 라스트오더'], ['목', '17:00 - 24:00', '23:00 라스트오더'], ['금', '17:00 - 01:00', '00:00 라스트오더'], ['토', '17:00 - 01:00', '00:00 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '17:00 - 24:00', '23:00 라스트오더'], ['- 라스트오더는 11시이며, 재고 소진시 일찍 종료됩니다.']]</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>010-7248-7011</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>오비베어 연남점</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로 15 1층 102호 팬앤팟</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 라스트오더', '23시 0분에 라스트오더', '펼쳐보기'], ['']]</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>010-7248-7011</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>슬로우코너</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 161-15 1층 101호</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>[['오늘 휴무', '07/11 휴무', '07/11 휴무'], ['화(7/11)', '휴무'], ['수(7/12)', '휴무'], ['목(7/13)', '휴무'], ['금(7/14)', '휴무'], ['토(7/15)', '휴무'], ['일(7/16)', '휴무'], ['월(7/17)', '휴무'], ['07/02-07/31 휴무'], ['- 4/15 GRAND OPEN!']]</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>0507-1496-0286</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>홈리스헤븐</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-8 지1층 101호 홈리스헤븐 / 부재천국(한문)</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>[['영업 전', '20:00에 영업 시작', '20시 0분에 영업 시작'], ['화', '20:00 - 03:00'], ['수', '20:00 - 03:00'], ['목', '20:00 - 03:00'], ['금', '20:00 - 03:00'], ['토', '20:00 - 03:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '20:00 - 03:00']]</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>0507-1391-6902</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>바 러프</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 26 지하1층</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 03:00', '02:00 라스트오더'], ['수', '19:00 - 03:00', '02:00 라스트오더'], ['목', '19:00 - 03:00', '02:00 라스트오더'], ['금', '19:00 - 03:00', '02:00 라스트오더'], ['토', '17:00 - 03:00', '02:00 라스트오더'], ['일', '17:00 - 03:00', '02:00 라스트오더'], ['월', '19:00 - 03:00', '02:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>02-3142-1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>라라벨연남</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로29안길 26 지하1층</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>02-3142-1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>틈틈</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>이자카야</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로51길 73-1 1층 안쪽</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작'], ['화', '18:30 - 24:00', '23:00 라스트오더'], ['수', '18:30 - 24:00', '23:00 라스트오더'], ['목', '18:30 - 24:00', '23:00 라스트오더'], ['금', '18:30 - 24:00', '23:00 라스트오더'], ['토', '18:30 - 24:00', '23:00 라스트오더'], ['일', '18:30 - 24:00', '23:00 라스트오더'], ['월', '18:30 - 24:00', '23:00 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>0507-1331-5365</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>셀라도어</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로17길 105-4 102호</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>[['영업 중', '20:00에 영업 종료', '20시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>0507-1365-9175</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Super BARKET</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로17길 105-4 102호</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>0507-1389-4177</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>쇠가부엌</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 227-11 지하 1층</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 04:00'], ['수', '19:00 - 04:00'], ['목', '19:00 - 04:00'], ['금', '19:00 - 04:00'], ['토', '19:00 - 04:00'], ['일', '19:00 - 04:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>0507-1389-4177</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>리스본캔어리</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>서울 마포구 연남로5길 9</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 23:00', '22:30 라스트오더'], ['수', '18:00 - 23:00', '22:30 라스트오더'], ['목', '18:00 - 23:00', '22:30 라스트오더'], ['금', '18:00 - 23:00', '22:30 라스트오더'], ['토', '18:00 - 23:00', '22:30 라스트오더'], ['일', '정기휴무 (매주 일요일)'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>0507-1372-1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>연남동장유</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-11 102호</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 영업 종료', '22시 0분에 영업 종료'], ['매일', '04:00 - 22:00']]</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>0507-1490-3212</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>올디너리포차</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 266-11 102호</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 영업 종료', '22시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>0507-1490-3212</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>백경</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>술집</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 16</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>연남장작</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 16</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>02-332-0207</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>믹슬로우</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로46길 14</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>[['영업 중', '22:00에 라스트오더', '22시 0분에 라스트오더'], ['화', '17:00 - 23:00', '22:00 라스트오더'], ['수', '17:00 - 23:00', '22:00 라스트오더'], ['목', '17:00 - 23:00', '22:00 라스트오더'], ['금', '17:00 - 23:00', '22:00 라스트오더'], ['토', '12:00 - 23:00', '15:00 - 17:00 브레이크타임', '22:00 라스트오더'], ['일', '12:00 - 21:00', '15:00 - 17:00 브레이크타임', '20:00 라스트오더'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>0507-1348-3909</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>해빗 태그</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 33-14 1층</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>[['영업 중', '23:00에 영업 종료', '23시 0분에 영업 종료'], ['화', '17:00 - 23:00'], ['수', '17:00 - 23:00'], ['목', '17:00 - 23:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 24:00'], ['일', '17:00 - 24:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>02-6368-1112</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>태힐리아</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 8 1층 태힐리아</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>02-2202-0105</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>더스트카멜</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>맥주,호프</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 8 1층 태힐리아</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>[['영업 중', '01:00에 영업 종료', '1시 0분에 영업 종료'], ['화', '17:30 - 01:00'], ['수', '17:30 - 01:00'], ['목', '17:30 - 01:00'], ['금', '17:30 - 01:00'], ['토', '17:30 - 02:00'], ['일', '17:30 - 02:00'], ['월', '17:30 - 01:00']]</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>02-2202-0105</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>계루</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>서울 마포구 성미산로 165-6</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>[['영업 전', '18:30에 영업 시작', '18시 30분에 영업 시작'], ['화', '18:30 - 02:00'], ['수', '18:30 - 02:00'], ['목', '18:30 - 02:00'], ['금', '18:30 - 02:00'], ['토', '18:30 - 02:00'], ['일', '정기휴무 (매주 일요일)'], ['월', '18:30 - 02:00']]</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>02-336-4493</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>목로집</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>요리주점</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로6길 19 1층 목로집</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>02-3357-9657</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>허프앤퍼프</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>서울 마포구 월드컵북로6길 19 1층 목로집</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 02:00'], ['토', '14:00 - 02:00'], ['일', '14:00 - 24:00'], ['월', '17:00 - 24:00'], ['- 유동적일 수 있으니 미리 전화 확인 부탁드립니다.']]</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>02-337-5555</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>미자살롱</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로38길 6 1층</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>[['영업 중', '24:00에 영업 종료', '0시 0분에 영업 종료'], ['화', '17:00 - 24:00'], ['수', '17:00 - 24:00'], ['목', '17:00 - 24:00'], ['금', '17:00 - 24:00'], ['토', '17:00 - 01:00'], ['일', '17:00 - 01:00'], ['월', '17:00 - 24:00']]</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>0507-1358-2198</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>바 주 연남</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>바(BAR)</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>정보 없음</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로34길 4 1층</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>[['영업 전', '19:00에 영업 시작', '19시 0분에 영업 시작'], ['화', '19:00 - 05:00', '04:30 라스트오더'], ['수', '19:00 - 05:00', '04:30 라스트오더'], ['목', '19:00 - 05:00', '04:30 라스트오더'], ['금', '19:00 - 05:00', '04:30 라스트오더'], ['토', '18:00 - 05:00', '04:30 라스트오더'], ['일', '18:00 - 05:00', '04:30 라스트오더'], ['월', '19:00 - 05:00', '04:30 라스트오더']]</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>0507-1364-2047</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>빌리언</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>포장마차</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 248-2 1층</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작'], ['화', '18:00 - 05:00'], ['수', '18:00 - 05:00'], ['목', '18:00 - 05:00'], ['금', '18:00 - 05:00'], ['토', '18:00 - 05:00'], ['일', '18:00 - 05:00'], ['월', '정기휴무 (매주 월요일)']]</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>010-7777-3229</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>라셀렉시옹</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>와인</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>서울 마포구 동교로 248-2 1층</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>[['곧 영업 시작', '18:00에 영업 시작', '18시 0분에 영업 시작', '펼쳐보기']]</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>010-7777-3229</t>
         </is>
       </c>
     </row>
